--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H2">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>9.018884266605431</v>
+        <v>25.16985966725333</v>
       </c>
       <c r="R2">
-        <v>9.018884266605431</v>
+        <v>226.52873700528</v>
       </c>
       <c r="S2">
-        <v>0.008374335603318203</v>
+        <v>0.01333214515497709</v>
       </c>
       <c r="T2">
-        <v>0.008374335603318203</v>
+        <v>0.01333214515497709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H3">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>556.7308296056776</v>
+        <v>1229.913257801921</v>
       </c>
       <c r="R3">
-        <v>556.7308296056776</v>
+        <v>11069.21932021729</v>
       </c>
       <c r="S3">
-        <v>0.5169431905335343</v>
+        <v>0.6514689512702929</v>
       </c>
       <c r="T3">
-        <v>0.5169431905335343</v>
+        <v>0.6514689512702929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H4">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q4">
-        <v>80.62662712766115</v>
+        <v>180.1009965071987</v>
       </c>
       <c r="R4">
-        <v>80.62662712766115</v>
+        <v>1620.908968564788</v>
       </c>
       <c r="S4">
-        <v>0.07486451917680134</v>
+        <v>0.09539714006089327</v>
       </c>
       <c r="T4">
-        <v>0.07486451917680134</v>
+        <v>0.09539714006089325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H5">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N5">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q5">
-        <v>1.983707269969195</v>
+        <v>2.72815742576</v>
       </c>
       <c r="R5">
-        <v>1.983707269969195</v>
+        <v>24.55341683184</v>
       </c>
       <c r="S5">
-        <v>0.00184193852880172</v>
+        <v>0.001445069272800999</v>
       </c>
       <c r="T5">
-        <v>0.00184193852880172</v>
+        <v>0.001445069272800998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H6">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N6">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q6">
-        <v>122.453172860199</v>
+        <v>133.310118994364</v>
       </c>
       <c r="R6">
-        <v>122.453172860199</v>
+        <v>1199.791070949276</v>
       </c>
       <c r="S6">
-        <v>0.1137018654313447</v>
+        <v>0.07061262480427961</v>
       </c>
       <c r="T6">
-        <v>0.1137018654313447</v>
+        <v>0.0706126248042796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H7">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q7">
-        <v>17.73385949506543</v>
+        <v>19.521120796996</v>
       </c>
       <c r="R7">
-        <v>17.73385949506543</v>
+        <v>175.690087172964</v>
       </c>
       <c r="S7">
-        <v>0.01646648150300144</v>
+        <v>0.01034008212576553</v>
       </c>
       <c r="T7">
-        <v>0.01646648150300144</v>
+        <v>0.01034008212576552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H8">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N8">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q8">
-        <v>4.024322942168538</v>
+        <v>5.211583086533333</v>
       </c>
       <c r="R8">
-        <v>4.024322942168538</v>
+        <v>46.9042477788</v>
       </c>
       <c r="S8">
-        <v>0.003736718411903605</v>
+        <v>0.002760507333590077</v>
       </c>
       <c r="T8">
-        <v>0.003736718411903605</v>
+        <v>0.002760507333590077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H9">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N9">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q9">
-        <v>248.4192704956317</v>
+        <v>254.6615363375633</v>
       </c>
       <c r="R9">
-        <v>248.4192704956317</v>
+        <v>2291.95382703807</v>
       </c>
       <c r="S9">
-        <v>0.2306655989771243</v>
+        <v>0.1348908819010657</v>
       </c>
       <c r="T9">
-        <v>0.2306655989771243</v>
+        <v>0.1348908819010658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H10">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q10">
-        <v>35.97646623551137</v>
+        <v>37.29108225763667</v>
       </c>
       <c r="R10">
-        <v>35.97646623551137</v>
+        <v>335.6197403187301</v>
       </c>
       <c r="S10">
-        <v>0.03340535183417038</v>
+        <v>0.01975259807633472</v>
       </c>
       <c r="T10">
-        <v>0.03340535183417038</v>
+        <v>0.01975259807633471</v>
       </c>
     </row>
   </sheetData>
